--- a/Teste_Email.xlsx
+++ b/Teste_Email.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\Python\meu_treino\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE38ACD3-6A40-49F9-8C6D-203796F13F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Teste1</t>
+  </si>
+  <si>
+    <t>Teste2</t>
+  </si>
+  <si>
+    <t>Teste3</t>
+  </si>
+  <si>
+    <t>Teste4</t>
+  </si>
+  <si>
+    <t>Teste5</t>
+  </si>
+  <si>
+    <t>Teste6</t>
+  </si>
+  <si>
+    <t>Teste7</t>
+  </si>
+  <si>
+    <t>guilherme888@gmail.com</t>
+  </si>
+  <si>
+    <t>Assunto</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +104,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +391,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Teste_Email.xlsx
+++ b/Teste_Email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\Python\meu_treino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE38ACD3-6A40-49F9-8C6D-203796F13F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABBEB94-024E-400B-86C9-CBAC9F695A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,14 +74,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,16 +96,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,7 +384,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,10 +405,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -427,10 +416,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -438,10 +427,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -449,10 +438,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -460,10 +449,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -471,10 +460,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -482,10 +471,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
